--- a/ExcelConfig/地图内黑店.xlsx
+++ b/ExcelConfig/地图内黑店.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="100" windowWidth="14800" windowHeight="8020" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="96" windowWidth="14796" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
-    <sheet name="SecretStore" sheetId="1" r:id="rId2"/>
+    <sheet name="SecretStoreConfig" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211" concurrentCalc="0"/>
+  <calcPr calcId="122211"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,14 +48,6 @@
     <t>String</t>
   </si>
   <si>
-    <t>SecretStore</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SecretStore.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>地图内黑店</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -125,6 +117,17 @@
   </si>
   <si>
     <t>Purchase_pile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SecretStoreConfig</t>
+  </si>
+  <si>
+    <t>SecretStoreConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SecretStoreConfig.json</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -219,9 +222,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -526,30 +529,30 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="19.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.5" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.83203125" style="1"/>
+    <col min="4" max="4" width="24.44140625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -572,25 +575,25 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="K19" sqref="K19"/>
+      <selection pane="bottomRight" activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="5.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.83203125" style="2"/>
+    <col min="12" max="16384" width="8.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16">
+    <row r="1" spans="1:11" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -601,31 +604,31 @@
         <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="16">
+    </row>
+    <row r="2" spans="1:11" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -660,7 +663,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16">
+    <row r="3" spans="1:11" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -668,34 +671,34 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <v>1</v>
       </c>
@@ -703,7 +706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -711,7 +714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -719,7 +722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -727,7 +730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
         <v>5</v>
       </c>
@@ -735,7 +738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
         <v>6</v>
       </c>
@@ -743,7 +746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
         <v>7</v>
       </c>
@@ -751,7 +754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <v>8</v>
       </c>
@@ -759,11 +762,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="16">
+    <row r="15" spans="1:11" ht="16.2" x14ac:dyDescent="0.3">
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="22" spans="5:6" ht="16">
+    <row r="22" spans="5:6" ht="16.2" x14ac:dyDescent="0.3">
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>

--- a/ExcelConfig/地图内黑店.xlsx
+++ b/ExcelConfig/地图内黑店.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="96" windowWidth="14796" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="3855" yWindow="-375" windowWidth="16995" windowHeight="9750" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
     <sheet name="SecretStoreConfig" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="66">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -128,6 +128,268 @@
   </si>
   <si>
     <t>SecretStoreConfig.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>藏宝阁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买货币类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>金币</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>钻石</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>魂灵</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图纸:夜纹袍</t>
+  </si>
+  <si>
+    <t>图纸:降妖杵</t>
+  </si>
+  <si>
+    <t>卷轴:背包扩容Ⅰ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图纸:月匙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图纸:打磨杵</t>
+  </si>
+  <si>
+    <t>图纸:硕石</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>图纸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>级矿锄</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图纸:灭离爪</t>
+  </si>
+  <si>
+    <t>图纸:兽甲</t>
+  </si>
+  <si>
+    <t>卷轴:背包扩容Ⅱ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金丰令Ⅰ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图纸:省身禅</t>
+  </si>
+  <si>
+    <t>图纸:比丘袈裟</t>
+  </si>
+  <si>
+    <t>图纸:引魂幡</t>
+  </si>
+  <si>
+    <t>图纸:黑纹袍</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>图纸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>级矿锄</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图纸:丰都令</t>
+  </si>
+  <si>
+    <t>图纸:月冕袍</t>
+  </si>
+  <si>
+    <t>卷轴:背包扩容Ⅲ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>图纸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>级矿锄</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>良耕券Ⅰ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图纸:九幽幡</t>
+  </si>
+  <si>
+    <t>图纸:飞隍甲</t>
+  </si>
+  <si>
+    <t>图纸:皂缨枪</t>
+  </si>
+  <si>
+    <t>图纸:唤风铃</t>
+  </si>
+  <si>
+    <t>图纸:火芭蕉</t>
+  </si>
+  <si>
+    <t>卷轴:背包扩容Ⅳ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5级矿锄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>图纸:乾坤圈</t>
+  </si>
+  <si>
+    <t>图纸:丰饶罩衫</t>
+  </si>
+  <si>
+    <t>图纸:度人经</t>
+  </si>
+  <si>
+    <t>图纸:云锦袈裟</t>
+  </si>
+  <si>
+    <t>背包扩容Ⅴ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -135,7 +397,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,13 +453,46 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -214,12 +509,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -240,7 +540,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -532,16 +832,16 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.44140625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.77734375" style="1"/>
+    <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -569,31 +869,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="K14" sqref="K14"/>
+      <selection pane="bottomRight" activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.77734375" style="2"/>
+    <col min="1" max="1" width="11.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.625" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -628,7 +929,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -663,7 +964,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -698,77 +999,1073 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <v>1</v>
       </c>
+      <c r="C4" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="D4" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>122</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2">
+        <v>200</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="B5" s="2">
         <v>2</v>
       </c>
+      <c r="C5" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="D5" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>123</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2">
+        <v>200</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="B6" s="2">
         <v>3</v>
       </c>
+      <c r="C6" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="D6" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>143</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2">
+        <v>300</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="B7" s="2">
         <v>4</v>
       </c>
+      <c r="C7" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="D7" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>164</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2">
+        <v>200</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="B8" s="2">
         <v>5</v>
       </c>
+      <c r="C8" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="D8" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
+        <v>62</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2">
+        <v>100</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
         <v>6</v>
       </c>
+      <c r="C9" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="D9" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
+        <v>61</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1</v>
+      </c>
+      <c r="I9" s="2">
+        <v>100</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>7</v>
       </c>
+      <c r="C10" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="D10" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2</v>
+      </c>
+      <c r="F10" s="2">
+        <v>92</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2">
+        <v>200</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <v>8</v>
       </c>
+      <c r="C11" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="D11" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="22" spans="5:6" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2</v>
+      </c>
+      <c r="F11" s="2">
+        <v>120</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1</v>
+      </c>
+      <c r="I11" s="2">
+        <v>200</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B12" s="2">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2</v>
+      </c>
+      <c r="F12" s="2">
+        <v>121</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1</v>
+      </c>
+      <c r="I12" s="2">
+        <v>200</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B13" s="2">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2</v>
+      </c>
+      <c r="F13" s="2">
+        <v>144</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1</v>
+      </c>
+      <c r="I13" s="2">
+        <v>300</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="2">
+        <v>11</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="2">
+        <v>3</v>
+      </c>
+      <c r="E14" s="2">
+        <v>3</v>
+      </c>
+      <c r="F14" s="2">
+        <v>155</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2">
+        <v>400</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B15" s="2">
+        <v>12</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="2">
+        <v>3</v>
+      </c>
+      <c r="E15" s="2">
+        <v>3</v>
+      </c>
+      <c r="F15" s="2">
+        <v>116</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1</v>
+      </c>
+      <c r="I15" s="2">
+        <v>200</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B16" s="2">
+        <v>13</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="2">
+        <v>3</v>
+      </c>
+      <c r="E16" s="2">
+        <v>3</v>
+      </c>
+      <c r="F16" s="2">
+        <v>117</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1</v>
+      </c>
+      <c r="I16" s="2">
+        <v>200</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B17" s="2">
+        <v>14</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="2">
+        <v>3</v>
+      </c>
+      <c r="E17" s="2">
+        <v>3</v>
+      </c>
+      <c r="F17" s="2">
+        <v>118</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1</v>
+      </c>
+      <c r="I17" s="2">
+        <v>200</v>
+      </c>
+      <c r="J17" s="2">
+        <v>1</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B18" s="2">
+        <v>15</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="2">
+        <v>3</v>
+      </c>
+      <c r="E18" s="2">
+        <v>3</v>
+      </c>
+      <c r="F18" s="2">
+        <v>119</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1</v>
+      </c>
+      <c r="I18" s="2">
+        <v>200</v>
+      </c>
+      <c r="J18" s="2">
+        <v>1</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="2">
+        <v>16</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="2">
+        <v>4</v>
+      </c>
+      <c r="E19" s="2">
+        <v>4</v>
+      </c>
+      <c r="F19" s="2">
+        <v>93</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1</v>
+      </c>
+      <c r="I19" s="2">
+        <v>300</v>
+      </c>
+      <c r="J19" s="2">
+        <v>1</v>
+      </c>
+      <c r="K19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B20" s="2">
+        <v>17</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="2">
+        <v>4</v>
+      </c>
+      <c r="E20" s="2">
+        <v>4</v>
+      </c>
+      <c r="F20" s="2">
+        <v>114</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1</v>
+      </c>
+      <c r="I20" s="2">
+        <v>500</v>
+      </c>
+      <c r="J20" s="2">
+        <v>1</v>
+      </c>
+      <c r="K20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B21" s="2">
+        <v>18</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="2">
+        <v>4</v>
+      </c>
+      <c r="E21" s="2">
+        <v>4</v>
+      </c>
+      <c r="F21" s="2">
+        <v>115</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H21" s="2">
+        <v>1</v>
+      </c>
+      <c r="I21" s="2">
+        <v>500</v>
+      </c>
+      <c r="J21" s="2">
+        <v>1</v>
+      </c>
+      <c r="K21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B22" s="2">
+        <v>19</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="2">
+        <v>4</v>
+      </c>
+      <c r="E22" s="2">
+        <v>4</v>
+      </c>
+      <c r="F22" s="2">
+        <v>145</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H22" s="2">
+        <v>1</v>
+      </c>
+      <c r="I22" s="2">
+        <v>300</v>
+      </c>
+      <c r="J22" s="2">
+        <v>1</v>
+      </c>
+      <c r="K22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="2">
+        <v>20</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="2">
+        <v>5</v>
+      </c>
+      <c r="E23" s="2">
+        <v>5</v>
+      </c>
+      <c r="F23" s="2">
+        <v>94</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H23" s="2">
+        <v>1</v>
+      </c>
+      <c r="I23" s="2">
+        <v>400</v>
+      </c>
+      <c r="J23" s="2">
+        <v>1</v>
+      </c>
+      <c r="K23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="2">
+        <v>21</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="2">
+        <v>5</v>
+      </c>
+      <c r="E24" s="2">
+        <v>5</v>
+      </c>
+      <c r="F24" s="2">
+        <v>153</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H24" s="2">
+        <v>1</v>
+      </c>
+      <c r="I24" s="2">
+        <v>500</v>
+      </c>
+      <c r="J24" s="2">
+        <v>1</v>
+      </c>
+      <c r="K24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B25" s="2">
+        <v>22</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="2">
+        <v>5</v>
+      </c>
+      <c r="E25" s="2">
+        <v>5</v>
+      </c>
+      <c r="F25" s="2">
+        <v>109</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H25" s="2">
+        <v>1</v>
+      </c>
+      <c r="I25" s="2">
+        <v>500</v>
+      </c>
+      <c r="J25" s="2">
+        <v>1</v>
+      </c>
+      <c r="K25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B26" s="2">
+        <v>23</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="2">
+        <v>5</v>
+      </c>
+      <c r="E26" s="2">
+        <v>5</v>
+      </c>
+      <c r="F26" s="2">
+        <v>110</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H26" s="2">
+        <v>1</v>
+      </c>
+      <c r="I26" s="2">
+        <v>500</v>
+      </c>
+      <c r="J26" s="2">
+        <v>1</v>
+      </c>
+      <c r="K26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B27" s="2">
+        <v>24</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="2">
+        <v>5</v>
+      </c>
+      <c r="E27" s="2">
+        <v>5</v>
+      </c>
+      <c r="F27" s="2">
+        <v>111</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H27" s="2">
+        <v>1</v>
+      </c>
+      <c r="I27" s="2">
+        <v>500</v>
+      </c>
+      <c r="J27" s="2">
+        <v>1</v>
+      </c>
+      <c r="K27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B28" s="2">
+        <v>25</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="2">
+        <v>5</v>
+      </c>
+      <c r="E28" s="2">
+        <v>5</v>
+      </c>
+      <c r="F28" s="2">
+        <v>112</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H28" s="2">
+        <v>1</v>
+      </c>
+      <c r="I28" s="2">
+        <v>500</v>
+      </c>
+      <c r="J28" s="2">
+        <v>1</v>
+      </c>
+      <c r="K28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B29" s="2">
+        <v>26</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="2">
+        <v>5</v>
+      </c>
+      <c r="E29" s="2">
+        <v>5</v>
+      </c>
+      <c r="F29" s="2">
+        <v>113</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H29" s="2">
+        <v>1</v>
+      </c>
+      <c r="I29" s="2">
+        <v>500</v>
+      </c>
+      <c r="J29" s="2">
+        <v>1</v>
+      </c>
+      <c r="K29" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B30" s="2">
+        <v>27</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="2">
+        <v>5</v>
+      </c>
+      <c r="E30" s="2">
+        <v>5</v>
+      </c>
+      <c r="F30" s="2">
+        <v>146</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H30" s="2">
+        <v>1</v>
+      </c>
+      <c r="I30" s="2">
+        <v>300</v>
+      </c>
+      <c r="J30" s="2">
+        <v>1</v>
+      </c>
+      <c r="K30" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="2">
+        <v>28</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="2">
+        <v>6</v>
+      </c>
+      <c r="E31" s="2">
+        <v>6</v>
+      </c>
+      <c r="F31" s="2">
+        <v>100</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H31" s="2">
+        <v>1</v>
+      </c>
+      <c r="I31" s="2">
+        <v>500</v>
+      </c>
+      <c r="J31" s="2">
+        <v>1</v>
+      </c>
+      <c r="K31" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B32" s="2">
+        <v>29</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="2">
+        <v>6</v>
+      </c>
+      <c r="E32" s="2">
+        <v>6</v>
+      </c>
+      <c r="F32" s="2">
+        <v>105</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H32" s="2">
+        <v>1</v>
+      </c>
+      <c r="I32" s="2">
+        <v>500</v>
+      </c>
+      <c r="J32" s="2">
+        <v>1</v>
+      </c>
+      <c r="K32" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B33" s="2">
+        <v>30</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="2">
+        <v>6</v>
+      </c>
+      <c r="E33" s="2">
+        <v>6</v>
+      </c>
+      <c r="F33" s="2">
+        <v>106</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H33" s="2">
+        <v>1</v>
+      </c>
+      <c r="I33" s="2">
+        <v>500</v>
+      </c>
+      <c r="J33" s="2">
+        <v>1</v>
+      </c>
+      <c r="K33" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B34" s="2">
+        <v>31</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" s="2">
+        <v>6</v>
+      </c>
+      <c r="E34" s="2">
+        <v>6</v>
+      </c>
+      <c r="F34" s="2">
+        <v>107</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H34" s="2">
+        <v>1</v>
+      </c>
+      <c r="I34" s="2">
+        <v>500</v>
+      </c>
+      <c r="J34" s="2">
+        <v>1</v>
+      </c>
+      <c r="K34" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B35" s="2">
+        <v>32</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35" s="2">
+        <v>6</v>
+      </c>
+      <c r="E35" s="2">
+        <v>6</v>
+      </c>
+      <c r="F35" s="2">
+        <v>108</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H35" s="2">
+        <v>1</v>
+      </c>
+      <c r="I35" s="2">
+        <v>500</v>
+      </c>
+      <c r="J35" s="2">
+        <v>1</v>
+      </c>
+      <c r="K35" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B36" s="2">
+        <v>33</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" s="2">
+        <v>6</v>
+      </c>
+      <c r="E36" s="2">
+        <v>6</v>
+      </c>
+      <c r="F36" s="2">
+        <v>152</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H36" s="2">
+        <v>1</v>
+      </c>
+      <c r="I36" s="2">
+        <v>300</v>
+      </c>
+      <c r="J36" s="2">
+        <v>1</v>
+      </c>
+      <c r="K36" s="2">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -778,7 +2075,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/ExcelConfig/地图内黑店.xlsx
+++ b/ExcelConfig/地图内黑店.xlsx
@@ -872,10 +872,10 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="I25" sqref="I25"/>
+      <selection pane="bottomRight" activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/ExcelConfig/地图内黑店.xlsx
+++ b/ExcelConfig/地图内黑店.xlsx
@@ -10,7 +10,7 @@
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
     <sheet name="SecretStoreConfig" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -205,6 +205,77 @@
   </si>
   <si>
     <t>图纸:硕石</t>
+  </si>
+  <si>
+    <t>图纸:灭离爪</t>
+  </si>
+  <si>
+    <t>图纸:兽甲</t>
+  </si>
+  <si>
+    <t>金丰令Ⅰ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图纸:省身禅</t>
+  </si>
+  <si>
+    <t>图纸:比丘袈裟</t>
+  </si>
+  <si>
+    <t>图纸:引魂幡</t>
+  </si>
+  <si>
+    <t>图纸:黑纹袍</t>
+  </si>
+  <si>
+    <t>图纸:丰都令</t>
+  </si>
+  <si>
+    <t>图纸:月冕袍</t>
+  </si>
+  <si>
+    <t>卷轴:背包扩容Ⅲ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>良耕券Ⅰ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图纸:九幽幡</t>
+  </si>
+  <si>
+    <t>图纸:飞隍甲</t>
+  </si>
+  <si>
+    <t>图纸:皂缨枪</t>
+  </si>
+  <si>
+    <t>图纸:唤风铃</t>
+  </si>
+  <si>
+    <t>图纸:火芭蕉</t>
+  </si>
+  <si>
+    <t>卷轴:背包扩容Ⅳ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图纸:乾坤圈</t>
+  </si>
+  <si>
+    <t>图纸:丰饶罩衫</t>
+  </si>
+  <si>
+    <t>图纸:度人经</t>
+  </si>
+  <si>
+    <t>图纸:云锦袈裟</t>
+  </si>
+  <si>
+    <t>背包扩容Ⅴ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -224,7 +295,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>:2</t>
+      <t>:</t>
     </r>
     <r>
       <rPr>
@@ -234,35 +305,13 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>级矿锄</t>
+      <t>矿锄Ⅱ</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>图纸:灭离爪</t>
-  </si>
-  <si>
-    <t>图纸:兽甲</t>
-  </si>
-  <si>
     <t>卷轴:背包扩容Ⅱ</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金丰令Ⅰ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图纸:省身禅</t>
-  </si>
-  <si>
-    <t>图纸:比丘袈裟</t>
-  </si>
-  <si>
-    <t>图纸:引魂幡</t>
-  </si>
-  <si>
-    <t>图纸:黑纹袍</t>
   </si>
   <si>
     <r>
@@ -282,7 +331,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>:3</t>
+      <t>:</t>
     </r>
     <r>
       <rPr>
@@ -292,18 +341,8 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>级矿锄</t>
+      <t>矿锄Ⅲ</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图纸:丰都令</t>
-  </si>
-  <si>
-    <t>图纸:月冕袍</t>
-  </si>
-  <si>
-    <t>卷轴:背包扩容Ⅲ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -324,7 +363,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>:4</t>
+      <t>:</t>
     </r>
     <r>
       <rPr>
@@ -334,36 +373,29 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>级矿锄</t>
+      <t>矿锄Ⅳ</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>良耕券Ⅰ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图纸:九幽幡</t>
-  </si>
-  <si>
-    <t>图纸:飞隍甲</t>
-  </si>
-  <si>
-    <t>图纸:皂缨枪</t>
-  </si>
-  <si>
-    <t>图纸:唤风铃</t>
-  </si>
-  <si>
-    <t>图纸:火芭蕉</t>
-  </si>
-  <si>
-    <t>卷轴:背包扩容Ⅳ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
-      <t>5级矿锄</t>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>图纸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
     </r>
     <r>
       <rPr>
@@ -373,23 +405,8 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t/>
+      <t>矿锄Ⅴ</t>
     </r>
-  </si>
-  <si>
-    <t>图纸:乾坤圈</t>
-  </si>
-  <si>
-    <t>图纸:丰饶罩衫</t>
-  </si>
-  <si>
-    <t>图纸:度人经</t>
-  </si>
-  <si>
-    <t>图纸:云锦袈裟</t>
-  </si>
-  <si>
-    <t>背包扩容Ⅴ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -397,7 +414,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -467,13 +484,6 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF00B050"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -509,7 +519,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -518,7 +528,6 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -875,7 +884,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="M10" sqref="M10"/>
+      <selection pane="bottomRight" activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1220,7 +1229,7 @@
         <v>92</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="H10" s="2">
         <v>1</v>
@@ -1252,7 +1261,7 @@
         <v>120</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" s="2">
         <v>1</v>
@@ -1284,7 +1293,7 @@
         <v>121</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H12" s="2">
         <v>1</v>
@@ -1316,7 +1325,7 @@
         <v>144</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="H13" s="2">
         <v>1</v>
@@ -1348,7 +1357,7 @@
         <v>155</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H14" s="2">
         <v>1</v>
@@ -1380,7 +1389,7 @@
         <v>116</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H15" s="2">
         <v>1</v>
@@ -1412,7 +1421,7 @@
         <v>117</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H16" s="2">
         <v>1</v>
@@ -1444,7 +1453,7 @@
         <v>118</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H17" s="2">
         <v>1</v>
@@ -1476,7 +1485,7 @@
         <v>119</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H18" s="2">
         <v>1</v>
@@ -1508,7 +1517,7 @@
         <v>93</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="H19" s="2">
         <v>1</v>
@@ -1540,7 +1549,7 @@
         <v>114</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H20" s="2">
         <v>1</v>
@@ -1572,7 +1581,7 @@
         <v>115</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H21" s="2">
         <v>1</v>
@@ -1604,7 +1613,7 @@
         <v>145</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H22" s="2">
         <v>1</v>
@@ -1636,7 +1645,7 @@
         <v>94</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="H23" s="2">
         <v>1</v>
@@ -1668,7 +1677,7 @@
         <v>153</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H24" s="2">
         <v>1</v>
@@ -1700,7 +1709,7 @@
         <v>109</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H25" s="2">
         <v>1</v>
@@ -1732,7 +1741,7 @@
         <v>110</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H26" s="2">
         <v>1</v>
@@ -1764,7 +1773,7 @@
         <v>111</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H27" s="2">
         <v>1</v>
@@ -1796,7 +1805,7 @@
         <v>112</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H28" s="2">
         <v>1</v>
@@ -1828,7 +1837,7 @@
         <v>113</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H29" s="2">
         <v>1</v>
@@ -1860,7 +1869,7 @@
         <v>146</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H30" s="2">
         <v>1</v>
@@ -1889,10 +1898,10 @@
         <v>6</v>
       </c>
       <c r="F31" s="2">
-        <v>100</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>60</v>
+        <v>95</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="H31" s="2">
         <v>1</v>
@@ -1924,7 +1933,7 @@
         <v>105</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="H32" s="2">
         <v>1</v>
@@ -1956,7 +1965,7 @@
         <v>106</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H33" s="2">
         <v>1</v>
@@ -1988,7 +1997,7 @@
         <v>107</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="H34" s="2">
         <v>1</v>
@@ -2020,7 +2029,7 @@
         <v>108</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H35" s="2">
         <v>1</v>
@@ -2051,8 +2060,8 @@
       <c r="F36" s="2">
         <v>152</v>
       </c>
-      <c r="G36" s="9" t="s">
-        <v>65</v>
+      <c r="G36" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="H36" s="2">
         <v>1</v>
